--- a/biology/Zoologie/Argiope_catenulata/Argiope_catenulata.xlsx
+++ b/biology/Zoologie/Argiope_catenulata/Argiope_catenulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope catenulata est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope catenulata est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de l'Inde à l'Australie[1].
-Elle a été observée en Inde[2], au Sri Lanka[3], en Birmanie[3], au Laos[4], au Viêt Nam[5], en Malaisie[6], en Indonésie[4], aux Philippines[5], aux Palaos[5], aux États fédérés de Micronésie[5] et en Australie au Territoire du Nord[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de l'Inde à l'Australie.
+Elle a été observée en Inde, au Sri Lanka, en Birmanie, au Laos, au Viêt Nam, en Malaisie, en Indonésie, aux Philippines, aux Palaos, aux États fédérés de Micronésie et en Australie au Territoire du Nord.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope catenulata est présente dans les prairies et dans les jardins et affectionne les zones humides[2] comme les zones ripariennes[8]. Elle se rencontre également dans les rizières[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope catenulata est présente dans les prairies et dans les jardins et affectionne les zones humides comme les zones ripariennes. Elle se rencontre également dans les rizières.
 </t>
         </is>
       </c>
@@ -574,15 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle mesure de 15 à 17 mm et le mâle de 6 à 8 mm[2].
-Description de la femelle
-Le céphalothorax est plus long que large se rétrécissant vers l'avant avec la région céphalique plus élevée que la région thoracique. Il est recouvert d'une épaisse couche de poils blancs argentés[10] et présente une tache jaune à la jonction entre la tête et le thorax[2]. Le quadrangle oculaire est plus long que large. Les yeux postérieurs médians sont cerclés de noir. Le sternum, en forme de cœur avec la pointe en arrière, est marron foncé avec une large tache médiane longitudinale jaune[2].
-Les pattes sont longues et fortes. Les fémurs des pattes I et II sont marron foncé avec des anneaux incomplets jaunes aux extrémités distales. Les fémurs des pattes III et IV sont plus clairs et sans anneaux. Les tibias des mêmes pattes présentent deux anneaux jaunes complets[2].
-L'abdomen, ovale et allongé, surmonte légèrement le céphalothorax[10],[2]. Il est orné sur sa partie dorsale de bandes transversales dont certaines sont interrompues et de taches jaunes[2] ou jaune citron[11] sur fond noir[11],[10]. La partie dorsale présente une bande longitudinale blanche[5] plus large vers le céphalothorax et plus étroite vers la partie postérieure. Cinq paires de sigilla sont clairement visibles. La partie ventrale, noire[10], présente deux taches longitudinales jaunes s'étendant du sillon épigastrique jusqu'au delà des filières[2] avec une bande transverse claire caractéristique[10],[5] et quelques points jaunes dans la partie antérieure[10]. Les filières comportent cinq larges appendices noirs[10].
-Description du mâle
-Le mâle, plus petit, est marron rougeâtre[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle mesure de 15 à 17 mm et le mâle de 6 à 8 mm.
 </t>
         </is>
       </c>
@@ -608,12 +620,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Espèces similaires</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argiope catenulata est similaire à Argiope trifasciata[3].
+          <t>Description de la femelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le céphalothorax est plus long que large se rétrécissant vers l'avant avec la région céphalique plus élevée que la région thoracique. Il est recouvert d'une épaisse couche de poils blancs argentés et présente une tache jaune à la jonction entre la tête et le thorax. Le quadrangle oculaire est plus long que large. Les yeux postérieurs médians sont cerclés de noir. Le sternum, en forme de cœur avec la pointe en arrière, est marron foncé avec une large tache médiane longitudinale jaune.
+Les pattes sont longues et fortes. Les fémurs des pattes I et II sont marron foncé avec des anneaux incomplets jaunes aux extrémités distales. Les fémurs des pattes III et IV sont plus clairs et sans anneaux. Les tibias des mêmes pattes présentent deux anneaux jaunes complets.
+L'abdomen, ovale et allongé, surmonte légèrement le céphalothorax,. Il est orné sur sa partie dorsale de bandes transversales dont certaines sont interrompues et de taches jaunes ou jaune citron sur fond noir,. La partie dorsale présente une bande longitudinale blanche plus large vers le céphalothorax et plus étroite vers la partie postérieure. Cinq paires de sigilla sont clairement visibles. La partie ventrale, noire, présente deux taches longitudinales jaunes s'étendant du sillon épigastrique jusqu'au delà des filières avec une bande transverse claire caractéristique, et quelques points jaunes dans la partie antérieure. Les filières comportent cinq larges appendices noirs.
 </t>
         </is>
       </c>
@@ -639,12 +659,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argiope catenulata est un prédateur des coléoptères du genre Berosus[13]. Elle consomme également des ravageurs du riz comme Nephotettix nigropictus, Nephotettix lugens et Hieroglyphus banion[14].
+          <t>Description du mâle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle, plus petit, est marron rougeâtre.
 </t>
         </is>
       </c>
@@ -670,12 +696,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Toile</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope catenulata construit une toile qui peut comporter un stabilimentum[2] en environ une heure[15].
+          <t>Espèces similaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope catenulata est similaire à Argiope trifasciata.
 </t>
         </is>
       </c>
@@ -701,12 +729,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Systématique et taxinomie</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Epeira catenulata par Doleschall en 1859.
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope catenulata est un prédateur des coléoptères du genre Berosus. Elle consomme également des ravageurs du riz comme Nephotettix nigropictus, Nephotettix lugens et Hieroglyphus banion.
 </t>
         </is>
       </c>
@@ -732,10 +762,78 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Toile</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope catenulata construit une toile qui peut comporter un stabilimentum en environ une heure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Argiope_catenulata</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argiope_catenulata</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique et taxinomie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Epeira catenulata par Doleschall en 1859.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Argiope_catenulata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argiope_catenulata</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Doleschall, 1859 : Tweede Bijdrage tot de Kenntis der Arachniden van den Indischen Archipel. Acta Societatis Scientiarum Indo-Neerlandicae, vol. 5, p. 1-60 (texte intégral).</t>
         </is>
